--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-practitionerrole</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -492,13 +492,31 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Slicing pour gérer le code région définissant la région source des données</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag:codeRegion</t>
+  </si>
+  <si>
+    <t>codeRegion</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
   </si>
   <si>
     <t>PractitionerRole.implicitRules</t>
@@ -596,6 +614,9 @@
     <t>PractitionerRole.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -605,35 +626,67 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-name}
+    <t>PractitionerRole.extension:ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t>ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
+    <t>modeExerciceOffre (SituationOperationnelle) : statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-practitionerrole-name</t>
+  </si>
+  <si>
+    <t>ror-practitionerrole-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/RORPractitionerRoleName}
+</t>
+  </si>
+  <si>
+    <t>civiliteExercie + nomExercice + prenomExercice (ExerciceProfessionnel)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour définir l'identité d’exercice d’un professionnel</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:contracted</t>
+  </si>
+  <si>
+    <t>contracted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted}
+</t>
+  </si>
+  <si>
+    <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.id</t>
+    <t>PractitionerRole.extension:contracted.id</t>
   </si>
   <si>
     <t>PractitionerRole.extension.id</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.extension</t>
+    <t>PractitionerRole.extension:contracted.extension</t>
   </si>
   <si>
     <t>PractitionerRole.extension.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.url</t>
+    <t>PractitionerRole.extension:contracted.url</t>
   </si>
   <si>
     <t>PractitionerRole.extension.url</t>
@@ -648,29 +701,32 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-name</t>
+    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
   </si>
   <si>
     <t>Extension.url</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.value[x]</t>
+    <t>PractitionerRole.extension:contracted.value[x]</t>
   </si>
   <si>
     <t>PractitionerRole.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://www.interopsante.org/fhir/structuredefinition/datatype/fr-human-name}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J130-CNAMAmeliSecteurConventionnement-RASS/FHIR/JDV-J130-CNAMAmeliSecteurConventionnement-RASS</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -683,618 +739,172 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName</t>
-  </si>
-  <si>
-    <t>valueHumanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
+    <t>PractitionerRole.extension:contracted.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:optionCAS</t>
+  </si>
+  <si>
+    <t>optionCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.use</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.text</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.family</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
+    <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:vitalAccepted</t>
+  </si>
+  <si>
+    <t>vitalAccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.given</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.prefix</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.suffix</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.period</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].period</t>
+    <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t>ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
+</t>
+  </si>
+  <si>
+    <t>dateCreation (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-meta-comment</t>
+  </si>
+  <si>
+    <t>ror-meta-comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-comment}
+</t>
+  </si>
+  <si>
+    <t>commentaire (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au commentaire présent dans les métadonnées.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>identifiantSituationOperationnelle (SituationOperationnelle) : Identifiant de la situation opérationnelle, unique et persistant au niveau national</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>STF-7</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted</t>
-  </si>
-  <si>
-    <t>contracted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.url</t>
-  </si>
-  <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R282-CNAMAmeliSecteurConventionnement/FHIR/TRE-R282-CNAMAmeliSecteurConventionnement</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:vitalAccepted</t>
-  </si>
-  <si>
-    <t>vitalAccepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:optionCAS</t>
-  </si>
-  <si>
-    <t>optionCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:mailboxMSS</t>
-  </si>
-  <si>
-    <t>mailboxMSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t>ror-practitionerrole-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>STF-7</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PractitionerRole.period</t>
-  </si>
-  <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
-  </si>
-  <si>
-    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
     <t>PRD-8/9 / PRA-5.4</t>
   </si>
   <si>
@@ -1349,7 +959,7 @@
     <t>PractitionerRole.code</t>
   </si>
   <si>
-    <t>Roles which this practitioner may perform</t>
+    <t>profession (ExerciceProfessionnel) : Profession exercée ou future profession de l'étudiant</t>
   </si>
   <si>
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
@@ -1388,10 +998,6 @@
     <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -1401,91 +1007,121 @@
     <t>./Specialty</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:ttpeSavoirFaireR04</t>
-  </si>
-  <si>
-    <t>ttpeSavoirFaireR04</t>
+    <t>PractitionerRole.specialty:expertiseType</t>
+  </si>
+  <si>
+    <t>expertiseType</t>
+  </si>
+  <si>
+    <t>typeSavoirFaire (SavoirFaire) : Type de savoir-faire (qualifications/autres attributions)</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:specialiteOrdinaleR38</t>
-  </si>
-  <si>
-    <t>specialiteOrdinaleR38</t>
+    <t>PractitionerRole.specialty:specialty</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>specialite (SavoirFaire) : Spécialité ordinale</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:competenceR39</t>
-  </si>
-  <si>
-    <t>competenceR39</t>
+    <t>PractitionerRole.specialty:competence</t>
+  </si>
+  <si>
+    <t>competence</t>
+  </si>
+  <si>
+    <t>competence (SavoirFaire) : Compétence acquise par le professionnel</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:competenceExclusiveR40</t>
-  </si>
-  <si>
-    <t>competenceExclusiveR40</t>
+    <t>PractitionerRole.specialty:exclusiveCompetence</t>
+  </si>
+  <si>
+    <t>exclusiveCompetence</t>
+  </si>
+  <si>
+    <t>competenceExclusive (SavoirFaire) : Compétence exclusive</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:orientationParticuliereG13</t>
-  </si>
-  <si>
-    <t>orientationParticuliereG13</t>
+    <t>PractitionerRole.specialty:specificOrientation</t>
+  </si>
+  <si>
+    <t>specificOrientation</t>
+  </si>
+  <si>
+    <t>orientationParticuliere (SavoirFaire) : Orientation particulière</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J212-OrientationParticuliere-ROR/FHIR/JDV-J212-OrientationParticuliere-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:capaciteSavoirFaireR43</t>
-  </si>
-  <si>
-    <t>capaciteSavoirFaireR43</t>
+    <t>PractitionerRole.specialty:expertiseCapacity</t>
+  </si>
+  <si>
+    <t>expertiseCapacity</t>
+  </si>
+  <si>
+    <t>capacite (SavoirFaire) : Capacité de médecine</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J213-CapaciteSavoirFaire-ROR/FHIR/JDV-J213-CapaciteSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:qualificationPACR44</t>
-  </si>
-  <si>
-    <t>qualificationPACR44</t>
+    <t>PractitionerRole.specialty:qualificationPAC</t>
+  </si>
+  <si>
+    <t>qualificationPAC</t>
+  </si>
+  <si>
+    <t>qualificationPAC (SavoirFaire) : Qualification de praticien adjoint contractuel</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:DESCnonQualifiantR42</t>
-  </si>
-  <si>
-    <t>DESCnonQualifiantR42</t>
+    <t>PractitionerRole.specialty:nonQualifyingDESC</t>
+  </si>
+  <si>
+    <t>nonQualifyingDESC</t>
+  </si>
+  <si>
+    <t>DESCNonQualifiant (SavoirFaire) : Diplôme d'études spécialisées complémentaires (DESC)</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:droitExerciceComplementaireR97</t>
-  </si>
-  <si>
-    <t>droitExerciceComplementaireR97</t>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight</t>
+  </si>
+  <si>
+    <t>supplementaryExerciseRight</t>
+  </si>
+  <si>
+    <t>droitExerciceComplémentaire (SavoirFaire) : Droit d'exercice complémentaire du professionnel</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:competenceSpecifiqueR243</t>
-  </si>
-  <si>
-    <t>competenceSpecifiqueR243</t>
+    <t>PractitionerRole.specialty:specificCompetence</t>
+  </si>
+  <si>
+    <t>specificCompetence</t>
+  </si>
+  <si>
+    <t>competenceSpecifique (SituationOperationnelle) : Capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J33-CompetenceSpecifique-ROR/FHIR/JDV-J33-CompetenceSpecifique-ROR</t>
@@ -1539,7 +1175,7 @@
 </t>
   </si>
   <si>
-    <t>Contact details that are specific to the role/location/service</t>
+    <t>telecommunication (SituationOperationnelle) : Adresse(s) de télécommunication du professionnel dans le cadre de l'offre décrite</t>
   </si>
   <si>
     <t>Contact details that are specific to the role/location/service.</t>
@@ -1567,46 +1203,52 @@
     <t>PractitionerRole.telecom.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-telecom-usage}
+    <t>PractitionerRole.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
+    <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
+</t>
+  </si>
+  <si>
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:communicationChannel</t>
-  </si>
-  <si>
-    <t>communicationChannel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-communication-channel}
+    <t>PractitionerRole.telecom.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension:confidentialityLevel</t>
-  </si>
-  <si>
-    <t>confidentialityLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-confidentiality-level}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>niveauConfidentialite (Telecommunication) : niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.system</t>
@@ -1616,6 +1258,9 @@
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -1643,7 +1288,7 @@
     <t>PractitionerRole.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -1692,6 +1337,9 @@
   </si>
   <si>
     <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
   </si>
   <si>
     <t>./ContactPointPurpose</t>
@@ -1728,6 +1376,12 @@
     <t>ContactPoint.period</t>
   </si>
   <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>PractitionerRole.availableTime</t>
   </si>
   <si>
@@ -1735,7 +1389,7 @@
 </t>
   </si>
   <si>
-    <t>Times the Service Site is available</t>
+    <t>precisionHoraire (SituationOperationnelle) : planning d'activité du professionnel</t>
   </si>
   <si>
     <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
@@ -1753,30 +1407,52 @@
     <t>PractitionerRole.availableTime.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.availableTime.extension:effectiveOpeningClosingDate</t>
-  </si>
-  <si>
-    <t>effectiveOpeningClosingDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t>PractitionerRole.availableTime.extension:ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t>ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR </t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:typeOfTime</t>
-  </si>
-  <si>
-    <t>typeOfTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-healthcareservice-available-time-type-of-time}
+    <t>typePlageHoraire (Horaire) : Apporte un contexte à la plage horaire définie par la suite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
+  </si>
+  <si>
+    <t>ror-available-time-effective-opening-closing-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
+    <t>debutDateEffective + finDateEffective (Horaire)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour décrire le planning d'activité d'un professionnel ou d'une offre.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-number-days-of-week</t>
+  </si>
+  <si>
+    <t>ror-available-time-number-days-of-week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
+</t>
+  </si>
+  <si>
+    <t>jourSemaine (Horaire) : Numéro du jour dans la semaine</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.modifierExtension</t>
@@ -1827,7 +1503,7 @@
 </t>
   </si>
   <si>
-    <t>Opening time of day (ignored if allDay = true)</t>
+    <t>heureDebut (Horaire) : Heure de début de la plage horaire</t>
   </si>
   <si>
     <t>The opening time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
@@ -1839,7 +1515,7 @@
     <t>PractitionerRole.availableTime.availableEndTime</t>
   </si>
   <si>
-    <t>Closing time of day (ignored if allDay = true)</t>
+    <t>heureFin (Horaire) : Heure de fin de la plage horaire</t>
   </si>
   <si>
     <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
@@ -2206,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2215,9 +1891,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="36.94921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2225,7 +1901,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.29296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2240,10 +1916,10 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="108.4375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="133.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="135.0390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3069,7 +2745,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>84</v>
@@ -3528,7 +3204,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3577,27 +3253,29 @@
       <c r="X12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y12" s="2"/>
+      <c r="Y12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3626,12 +3304,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
@@ -3646,22 +3326,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3687,13 +3367,11 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3711,13 +3389,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -3726,10 +3404,10 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3740,10 +3418,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3760,13 +3438,13 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>164</v>
@@ -3801,31 +3479,31 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3854,14 +3532,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3880,16 +3558,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3915,13 +3593,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3939,7 +3617,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3957,7 +3635,7 @@
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3968,21 +3646,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3994,16 +3672,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4053,25 +3731,25 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -4082,18 +3760,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -4108,15 +3786,17 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -4153,19 +3833,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4174,16 +3854,16 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -4194,23 +3874,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -4222,13 +3900,13 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4267,19 +3945,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4297,7 +3975,7 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -4308,18 +3986,20 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -4334,13 +4014,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4391,25 +4071,25 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -4420,12 +4100,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>74</v>
       </c>
@@ -4434,7 +4116,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4446,13 +4128,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4491,19 +4173,19 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4532,18 +4214,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>84</v>
@@ -4558,24 +4242,22 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>74</v>
@@ -4617,19 +4299,19 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -4646,10 +4328,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4672,17 +4354,15 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4719,17 +4399,19 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4738,19 +4420,19 @@
         <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4758,14 +4440,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4774,7 +4454,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4786,17 +4466,15 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4833,40 +4511,40 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4874,10 +4552,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4885,7 +4563,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>84</v>
@@ -4900,22 +4578,24 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4957,10 +4637,10 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>84</v>
@@ -4975,7 +4655,7 @@
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4993,14 +4673,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -5012,17 +4692,15 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -5047,43 +4725,41 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -5100,12 +4776,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
@@ -5120,26 +4798,22 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -5163,31 +4837,29 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5202,13 +4874,13 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -5216,12 +4888,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
@@ -5239,23 +4913,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -5303,25 +4973,25 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -5332,18 +5002,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -5355,20 +5027,18 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -5417,28 +5087,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -5446,21 +5116,23 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D29" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5469,20 +5141,18 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5531,7 +5201,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5543,16 +5213,16 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5560,12 +5230,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5574,7 +5246,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5583,20 +5255,18 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5645,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5657,16 +5327,16 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5674,14 +5344,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5694,24 +5364,26 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5747,19 +5419,19 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5771,13 +5443,13 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5788,10 +5460,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5814,19 +5486,17 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5875,43 +5545,41 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5929,23 +5597,29 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="R33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5989,39 +5663,39 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6041,19 +5715,23 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -6101,7 +5779,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -6110,30 +5788,30 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6141,10 +5819,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -6153,18 +5831,20 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -6201,37 +5881,37 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -6242,10 +5922,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6253,7 +5933,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>84</v>
@@ -6265,19 +5945,19 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6285,7 +5965,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>74</v>
@@ -6327,25 +6007,25 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -6359,7 +6039,7 @@
         <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6367,7 +6047,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>84</v>
@@ -6379,19 +6059,23 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6415,11 +6099,9 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
         <v>306</v>
       </c>
@@ -6439,13 +6121,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>96</v>
@@ -6454,13 +6136,13 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -6468,10 +6150,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6479,10 +6161,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6491,18 +6173,20 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -6527,52 +6211,50 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6580,21 +6262,23 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6603,19 +6287,19 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6641,31 +6325,29 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6677,16 +6359,16 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6694,12 +6376,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6708,7 +6392,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6720,20 +6404,18 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6757,13 +6439,11 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6781,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6796,13 +6476,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6810,12 +6490,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6833,18 +6515,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6869,13 +6553,11 @@
         <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -6893,28 +6575,28 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6922,21 +6604,23 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6945,19 +6629,19 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6983,31 +6667,29 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -7019,16 +6701,16 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -7036,12 +6718,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>74</v>
       </c>
@@ -7062,26 +6746,24 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>74</v>
@@ -7099,13 +6781,11 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -7123,13 +6803,13 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>96</v>
@@ -7138,13 +6818,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -7152,12 +6832,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>74</v>
       </c>
@@ -7178,16 +6860,16 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7213,13 +6895,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -7237,13 +6917,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>96</v>
@@ -7252,13 +6932,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -7266,12 +6946,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7292,20 +6974,18 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7329,13 +7009,11 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7353,13 +7031,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
@@ -7368,13 +7046,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -7382,12 +7060,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7408,20 +7088,18 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7445,13 +7123,11 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7469,13 +7145,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>96</v>
@@ -7484,13 +7160,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7498,12 +7174,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7524,20 +7202,18 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7561,13 +7237,11 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7585,13 +7259,13 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>96</v>
@@ -7600,13 +7274,13 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -7614,12 +7288,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7628,7 +7304,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7640,20 +7316,18 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7677,13 +7351,11 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7701,13 +7373,13 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
@@ -7716,13 +7388,13 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7730,14 +7402,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7746,7 +7416,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7755,18 +7425,20 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>193</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7815,7 +7487,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>189</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7827,37 +7499,35 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -7872,15 +7542,17 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7929,7 +7601,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>189</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7941,13 +7613,13 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7958,14 +7630,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7974,7 +7644,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7983,19 +7653,21 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -8043,7 +7715,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8055,16 +7727,16 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>115</v>
+        <v>376</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>98</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -8072,24 +7744,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
@@ -8100,13 +7770,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8157,25 +7827,25 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -8186,18 +7856,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -8206,7 +7876,7 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>74</v>
@@ -8215,17 +7885,13 @@
         <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
       </c>
@@ -8273,7 +7939,7 @@
         <v>113</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>391</v>
+        <v>114</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8291,7 +7957,7 @@
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -8302,18 +7968,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -8325,21 +7993,19 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8387,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>114</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8399,29 +8065,31 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>397</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8439,29 +8107,23 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8505,47 +8167,49 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>401</v>
+        <v>114</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -8557,23 +8221,19 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8621,39 +8281,39 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>114</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>417</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8661,7 +8321,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -8676,16 +8336,16 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8711,13 +8371,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8735,7 +8395,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8744,19 +8404,19 @@
         <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>404</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>423</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8764,10 +8424,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8775,7 +8435,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>84</v>
@@ -8790,18 +8450,20 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8849,7 +8511,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8861,16 +8523,16 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>423</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8878,10 +8540,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8889,7 +8551,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>84</v>
@@ -8898,25 +8560,25 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
@@ -8941,11 +8603,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8963,13 +8627,13 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>96</v>
@@ -8978,13 +8642,13 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8992,10 +8656,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9003,10 +8667,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -9018,16 +8682,16 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>302</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9053,35 +8717,37 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>96</v>
@@ -9090,13 +8756,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>446</v>
+        <v>104</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -9104,20 +8770,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>84</v>
@@ -9132,16 +8796,16 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9167,11 +8831,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -9189,28 +8855,28 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>445</v>
+        <v>98</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -9218,14 +8884,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>74</v>
       </c>
@@ -9243,19 +8907,19 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>302</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9281,11 +8945,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>453</v>
+        <v>74</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -9303,7 +8969,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9318,13 +8984,13 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AM62" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -9332,14 +8998,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>74</v>
       </c>
@@ -9357,20 +9021,18 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>439</v>
+        <v>101</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -9395,11 +9057,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -9417,28 +9081,28 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>103</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>446</v>
+        <v>104</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9446,23 +9110,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -9471,19 +9133,19 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
+        <v>109</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>441</v>
+        <v>110</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9509,29 +9171,31 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>438</v>
+        <v>114</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9543,16 +9207,16 @@
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>446</v>
+        <v>98</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9560,13 +9224,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
@@ -9585,20 +9249,18 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>302</v>
+        <v>450</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9623,11 +9285,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>462</v>
+        <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9645,7 +9309,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>438</v>
+        <v>114</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9657,16 +9321,16 @@
         <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9674,13 +9338,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
@@ -9699,20 +9363,18 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>302</v>
+        <v>455</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9737,11 +9399,13 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>465</v>
+        <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9759,7 +9423,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>438</v>
+        <v>114</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9771,16 +9435,16 @@
         <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9788,13 +9452,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>74</v>
@@ -9813,20 +9477,18 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>302</v>
+        <v>460</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9851,11 +9513,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9873,7 +9537,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>438</v>
+        <v>114</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9885,16 +9549,16 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9902,46 +9566,46 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9965,11 +9629,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>471</v>
+        <v>74</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9987,7 +9653,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9999,16 +9665,16 @@
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>446</v>
+        <v>98</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -10016,14 +9682,12 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>74</v>
       </c>
@@ -10032,7 +9696,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -10041,19 +9705,19 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10079,11 +9743,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y69" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Z69" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -10101,7 +9767,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10116,13 +9782,13 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AM69" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -10130,14 +9796,12 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>74</v>
       </c>
@@ -10146,7 +9810,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -10155,20 +9819,18 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -10193,11 +9855,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -10215,13 +9879,13 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>96</v>
@@ -10230,13 +9894,13 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10244,10 +9908,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10258,7 +9922,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -10267,19 +9931,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10329,39 +9993,39 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>423</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>484</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10369,7 +10033,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -10384,16 +10048,16 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10443,25 +10107,25 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>423</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10472,10 +10136,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10486,7 +10150,7 @@
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10495,21 +10159,19 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>492</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
@@ -10557,7 +10219,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10569,16 +10231,16 @@
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>496</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>499</v>
+        <v>74</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10586,10 +10248,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10698,18 +10360,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>502</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10727,12 +10389,14 @@
         <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10799,7 +10463,7 @@
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10810,44 +10474,46 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10895,7 +10561,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>114</v>
+        <v>467</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10913,7 +10579,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10924,14 +10590,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10952,15 +10616,17 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>509</v>
+        <v>100</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>187</v>
+        <v>491</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -11009,25 +10675,25 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>114</v>
+        <v>490</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -11038,20 +10704,18 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>84</v>
@@ -11066,15 +10730,17 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>513</v>
+        <v>279</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>187</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -11123,25 +10789,25 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>114</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -11152,10 +10818,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11175,19 +10841,19 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11213,13 +10879,13 @@
         <v>74</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>518</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>519</v>
+        <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>74</v>
@@ -11237,7 +10903,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -11246,19 +10912,19 @@
         <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>521</v>
+        <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>522</v>
+        <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>524</v>
+        <v>74</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -11266,10 +10932,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11277,10 +10943,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -11289,22 +10955,22 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>100</v>
+        <v>501</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>528</v>
+        <v>293</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -11353,2424 +11019,30 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>531</v>
+        <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>533</v>
+        <v>74</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="D87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN101" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
